--- a/excercises/excercises 2/ex040.GLV.xlsx
+++ b/excercises/excercises 2/ex040.GLV.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8AE581-4BF2-4355-B4D1-86C51448FE6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3974D-FD19-4B06-A0B7-A77E0E33D24D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{47E26092-495B-4C72-9A78-A07D49CA9EA5}"/>
   </bookViews>
@@ -80,8 +80,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -339,8 +339,8 @@
     <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2197,23 +2197,23 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
+    <col min="3" max="12" width="9.1796875" style="1"/>
+    <col min="13" max="13" width="10.81640625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="9.1796875" style="1"/>
     <col min="17" max="17" width="10" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -2225,54 +2225,54 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="str">
-        <f>$C$8&amp;" = " &amp;C9</f>
+        <f t="shared" ref="C7:K7" si="0">$C$8&amp;" = " &amp;C9</f>
         <v>P = 10</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>$C$8&amp;" = " &amp;D9</f>
+        <f t="shared" si="0"/>
         <v>P = 20</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>$C$8&amp;" = " &amp;E9</f>
+        <f t="shared" si="0"/>
         <v>P = 30</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>$C$8&amp;" = " &amp;F9</f>
+        <f t="shared" si="0"/>
         <v>P = 40</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>$C$8&amp;" = " &amp;G9</f>
+        <f t="shared" si="0"/>
         <v>P = 50</v>
       </c>
       <c r="H7" s="1" t="str">
-        <f>$C$8&amp;" = " &amp;H9</f>
+        <f t="shared" si="0"/>
         <v>P = 60</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>$C$8&amp;" = " &amp;I9</f>
+        <f t="shared" si="0"/>
         <v>P = 70</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f>$C$8&amp;" = " &amp;J9</f>
+        <f t="shared" si="0"/>
         <v>P = 80</v>
       </c>
       <c r="K7" s="1" t="str">
-        <f>$C$8&amp;" = " &amp;K9</f>
+        <f t="shared" si="0"/>
         <v>P = 90</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -2285,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>10</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>92.155986324063619</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="14" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>13</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>90.979088303119795</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="14" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>16</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>89.831870902493719</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="14" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>19</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>88.713225314321107</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="14" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>22</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>87.622097281852916</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="14" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
         <v>25</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="14" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>28</v>
       </c>
@@ -2641,7 +2641,7 @@
       <c r="N16" s="6"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="14" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
         <v>31</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="14" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
         <v>34</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="14" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
         <v>37</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" ht="14" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
         <v>40</v>
       </c>
@@ -2813,7 +2813,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="14" x14ac:dyDescent="0.3">
       <c r="B21" s="15">
         <v>43</v>
       </c>
@@ -2856,15 +2856,15 @@
       <c r="M21" s="5"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M22" s="5"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M23" s="5"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <f>N9</f>
         <v>47.346752451349808</v>
@@ -2883,7 +2883,7 @@
       <c r="M24" s="5"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="30">
         <v>0</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="M25" s="5"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M26" s="5"/>
       <c r="N26" s="6"/>
     </row>
@@ -2921,7 +2921,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
